--- a/allTest_MDPCPorgJune.xlsx
+++ b/allTest_MDPCPorgJune.xlsx
@@ -3726,10 +3726,10 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3737,10 +3737,10 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3748,10 +3748,10 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3759,10 +3759,10 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3770,10 +3770,10 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3781,10 +3781,10 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3792,10 +3792,10 @@
         <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3803,10 +3803,10 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3814,10 +3814,10 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3825,10 +3825,10 @@
         <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3836,10 +3836,10 @@
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3847,10 +3847,10 @@
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3858,10 +3858,10 @@
         <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/allTest_MDPCPorgJune.xlsx
+++ b/allTest_MDPCPorgJune.xlsx
@@ -10,19 +10,16 @@
     <sheet name="insCountMax prod_medstar_mdpcp" sheetId="1" r:id="rId1"/>
     <sheet name="insCountMaxC prod_medstar_mdpcp" sheetId="2" r:id="rId2"/>
     <sheet name="dupInsCheck prod_medstar_mdpcp" sheetId="3" r:id="rId3"/>
-    <sheet name="acoXdupMonth prod_medstar_mdpcp" sheetId="4" r:id="rId4"/>
-    <sheet name="odsCountMax prod_medstar_mdpcp" sheetId="5" r:id="rId5"/>
-    <sheet name="odsCountMaxC prod_medstar_mdpcp" sheetId="6" r:id="rId6"/>
-    <sheet name="ccsCompare prod_medstar_mdpcp" sheetId="7" r:id="rId7"/>
-    <sheet name="dupODSchk prod_medstar_mdpcp" sheetId="8" r:id="rId8"/>
-    <sheet name="MDPCP_ps_id prod_medstar_mdpcp" sheetId="9" r:id="rId9"/>
+    <sheet name="odsCountMax prod_medstar_mdpcp" sheetId="4" r:id="rId4"/>
+    <sheet name="odsCountMaxC prod_medstar_mdpcp" sheetId="5" r:id="rId5"/>
+    <sheet name="MDPCP_ps_id prod_medstar_mdpcp" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="59">
   <si>
     <t>tableName</t>
   </si>
@@ -144,24 +141,6 @@
     <t>pkRowCount</t>
   </si>
   <si>
-    <t>ATTRIBUTION_REASON_CD</t>
-  </si>
-  <si>
-    <t>ATTRIBUTION_SOURCE_CD</t>
-  </si>
-  <si>
-    <t>FK_ACO_ID</t>
-  </si>
-  <si>
-    <t>FK_PATIENT_ID</t>
-  </si>
-  <si>
-    <t>MONTH_CD</t>
-  </si>
-  <si>
-    <t>DUPMOCNT</t>
-  </si>
-  <si>
     <t>nh_network_model_0_hdr</t>
   </si>
   <si>
@@ -211,192 +190,6 @@
   </si>
   <si>
     <t>q-2022-1</t>
-  </si>
-  <si>
-    <t>MEASURE_ID</t>
-  </si>
-  <si>
-    <t>RWCNT_x</t>
-  </si>
-  <si>
-    <t>RWCNT_y</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_acquired_hypothyroidism</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_acute_myocardial_infarction</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_alzheimers_disease</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_alzheimers_disease_and_related_disorders_or_senile_dementia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_anemia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_anxiety_disorders</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_asthma</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_atrial_fibrillation</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_benign_prostatic_hyperplasia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_bipolar_disorder</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_cataract</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_chronic_kidney_disease</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_chronic_obstructive_pulmonary_disease_and_bronchiectasis</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_colorectal_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_depression</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_diabetes</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_endometrial_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_female_male_breast_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_glaucoma</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_heart_failure</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_hip_pelvic_fracture</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_hyperlipidemia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_hypertension</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_ischemic_heart_disease</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_lung_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_obesity</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_osteoporosis</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_personality_disorders</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_post_traumatic_stress_disorder</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_prostate_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_rheumatoid_arthritis_osteoarthritis</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_schizophrenia_and_other_psychotic_disorders</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_stroke_transient_ischemic_attack</t>
-  </si>
-  <si>
-    <t>cclf_0_summ_stat</t>
-  </si>
-  <si>
-    <t>cclf_1_pt_a_clm_hdr</t>
-  </si>
-  <si>
-    <t>cclf_2_pt_a_clm_rev_ctr_det</t>
-  </si>
-  <si>
-    <t>cclf_3_pt_a_proc_cd</t>
-  </si>
-  <si>
-    <t>cclf_4_pt_a_diag_cd</t>
-  </si>
-  <si>
-    <t>cclf_5_pt_b_phys</t>
-  </si>
-  <si>
-    <t>cclf_6_pt_b_dme</t>
-  </si>
-  <si>
-    <t>cclf_7_pt_d</t>
-  </si>
-  <si>
-    <t>cclf_8_bene_demo</t>
-  </si>
-  <si>
-    <t>cclf_a_pt_a_be_demo</t>
-  </si>
-  <si>
-    <t>cclf_assgn_0_header</t>
-  </si>
-  <si>
-    <t>cclf_assgn_1_hcc</t>
-  </si>
-  <si>
-    <t>cclf_assgn_1_summ</t>
-  </si>
-  <si>
-    <t>cclf_assgn_2_tin</t>
-  </si>
-  <si>
-    <t>cclf_assgn_3_ccn</t>
-  </si>
-  <si>
-    <t>cclf_assgn_4_tin_npi</t>
-  </si>
-  <si>
-    <t>cclf_assgn_5_turnover</t>
-  </si>
-  <si>
-    <t>cclf_assgn_6_assgnbl</t>
-  </si>
-  <si>
-    <t>cclf_b_pt_b_be_demo</t>
-  </si>
-  <si>
-    <t>cclf_benchmark_1_detail</t>
-  </si>
-  <si>
-    <t>cclf_expu_0_header</t>
-  </si>
-  <si>
-    <t>cclf_expu_1_detail</t>
-  </si>
-  <si>
-    <t>cclf_expu_2_regional</t>
-  </si>
-  <si>
-    <t>cclf_expu_2_snf</t>
-  </si>
-  <si>
-    <t>cclf_expu_3_snf</t>
-  </si>
-  <si>
-    <t>cclf_ng_align</t>
   </si>
   <si>
     <t>loadPeriod</t>
@@ -1850,7 +1643,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2070,23 +1863,12 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21">
         <v>0</v>
       </c>
     </row>
@@ -2096,39 +1878,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -2155,7 +1904,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -2164,7 +1913,7 @@
         <v>44260</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2172,223 +1921,223 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>541758</v>
+        <v>585100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>28334</v>
+        <v>31804</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>432792</v>
+        <v>476134</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>17251092</v>
+        <v>18811404</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>1610445</v>
+        <v>1786637</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E8">
-        <v>3335509</v>
+        <v>3643747</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E9">
-        <v>18638189</v>
+        <v>20431194</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>382682</v>
+        <v>417804</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E11">
-        <v>25968509</v>
+        <v>28259590</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E12">
-        <v>3445978</v>
+        <v>3788413</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>44734</v>
+        <v>44736</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E13">
-        <v>66362516</v>
+        <v>73116558</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E14">
-        <v>22546516</v>
+        <v>24725632</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>4350</v>
+        <v>4880</v>
       </c>
     </row>
   </sheetData>
@@ -2396,7 +2145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -2438,7 +2187,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -2447,7 +2196,7 @@
         <v>44260</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2459,7 +2208,7 @@
         <v>44260</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2470,19 +2219,19 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>541758</v>
+        <v>585100</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -2491,30 +2240,30 @@
         <v>44685</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I3">
         <v>541491</v>
       </c>
       <c r="J3">
-        <v>267</v>
+        <v>43609</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>28334</v>
+        <v>31804</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -2523,30 +2272,30 @@
         <v>44685</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I4">
         <v>28322</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>432792</v>
+        <v>476134</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -2555,30 +2304,30 @@
         <v>44685</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I5">
         <v>432525</v>
       </c>
       <c r="J5">
-        <v>267</v>
+        <v>43609</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>17251092</v>
+        <v>18811404</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -2587,30 +2336,30 @@
         <v>44685</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I6">
         <v>17241480</v>
       </c>
       <c r="J6">
-        <v>9612</v>
+        <v>1569924</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>1610445</v>
+        <v>1786637</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -2619,30 +2368,30 @@
         <v>44685</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I7">
         <v>1609377</v>
       </c>
       <c r="J7">
-        <v>1068</v>
+        <v>177260</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E8">
-        <v>3335509</v>
+        <v>3643747</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -2651,30 +2400,30 @@
         <v>44685</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I8">
         <v>3333564</v>
       </c>
       <c r="J8">
-        <v>1945</v>
+        <v>310183</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E9">
-        <v>18638189</v>
+        <v>20431194</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -2683,30 +2432,30 @@
         <v>44685</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I9">
         <v>18627988</v>
       </c>
       <c r="J9">
-        <v>10201</v>
+        <v>1803206</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>382682</v>
+        <v>417804</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -2715,30 +2464,30 @@
         <v>44685</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I10">
         <v>382535</v>
       </c>
       <c r="J10">
-        <v>147</v>
+        <v>35269</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E11">
-        <v>25968509</v>
+        <v>28259590</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -2747,30 +2496,30 @@
         <v>44685</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I11">
         <v>25955246</v>
       </c>
       <c r="J11">
-        <v>13263</v>
+        <v>2304344</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E12">
-        <v>3445978</v>
+        <v>3788413</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -2779,30 +2528,30 @@
         <v>44685</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I12">
         <v>3444448</v>
       </c>
       <c r="J12">
-        <v>1530</v>
+        <v>343965</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>44734</v>
+        <v>44736</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E13">
-        <v>66362516</v>
+        <v>73116558</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -2811,30 +2560,30 @@
         <v>44690</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I13">
         <v>66323111</v>
       </c>
       <c r="J13">
-        <v>39405</v>
+        <v>6793447</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E14">
-        <v>22546516</v>
+        <v>24725632</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -2843,30 +2592,30 @@
         <v>44685</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I14">
         <v>22532362</v>
       </c>
       <c r="J14">
-        <v>14154</v>
+        <v>2193270</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>44733</v>
+        <v>44736</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>4350</v>
+        <v>4880</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -2875,13 +2624,13 @@
         <v>44685</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I15">
         <v>4340</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -2889,820 +2638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2">
-        <v>612276</v>
-      </c>
-      <c r="C2">
-        <v>612276</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
-        <v>61309</v>
-      </c>
-      <c r="C3">
-        <v>61309</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4">
-        <v>74185</v>
-      </c>
-      <c r="C4">
-        <v>74185</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5">
-        <v>279128</v>
-      </c>
-      <c r="C5">
-        <v>279128</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6">
-        <v>923187</v>
-      </c>
-      <c r="C6">
-        <v>923187</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7">
-        <v>675287</v>
-      </c>
-      <c r="C7">
-        <v>675287</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8">
-        <v>322233</v>
-      </c>
-      <c r="C8">
-        <v>322233</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9">
-        <v>383024</v>
-      </c>
-      <c r="C9">
-        <v>383024</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10">
-        <v>469012</v>
-      </c>
-      <c r="C10">
-        <v>469012</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11">
-        <v>114737</v>
-      </c>
-      <c r="C11">
-        <v>114737</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12">
-        <v>1305138</v>
-      </c>
-      <c r="C12">
-        <v>1305138</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13">
-        <v>942908</v>
-      </c>
-      <c r="C13">
-        <v>942908</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14">
-        <v>630480</v>
-      </c>
-      <c r="C14">
-        <v>630480</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15">
-        <v>60902</v>
-      </c>
-      <c r="C15">
-        <v>60902</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16">
-        <v>611573</v>
-      </c>
-      <c r="C16">
-        <v>611573</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17">
-        <v>982424</v>
-      </c>
-      <c r="C17">
-        <v>982424</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18">
-        <v>23347</v>
-      </c>
-      <c r="C18">
-        <v>23347</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19">
-        <v>157657</v>
-      </c>
-      <c r="C19">
-        <v>157657</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20">
-        <v>585044</v>
-      </c>
-      <c r="C20">
-        <v>585044</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21">
-        <v>391608</v>
-      </c>
-      <c r="C21">
-        <v>391608</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22">
-        <v>37481</v>
-      </c>
-      <c r="C22">
-        <v>37481</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23">
-        <v>1948272</v>
-      </c>
-      <c r="C23">
-        <v>1948272</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24">
-        <v>2010432</v>
-      </c>
-      <c r="C24">
-        <v>2010432</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25">
-        <v>780256</v>
-      </c>
-      <c r="C25">
-        <v>780256</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26">
-        <v>52540</v>
-      </c>
-      <c r="C26">
-        <v>52540</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27">
-        <v>865985</v>
-      </c>
-      <c r="C27">
-        <v>865985</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28">
-        <v>433973</v>
-      </c>
-      <c r="C28">
-        <v>433973</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29">
-        <v>78292</v>
-      </c>
-      <c r="C29">
-        <v>78292</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30">
-        <v>36852</v>
-      </c>
-      <c r="C30">
-        <v>36852</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31">
-        <v>145225</v>
-      </c>
-      <c r="C31">
-        <v>145225</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32">
-        <v>1481184</v>
-      </c>
-      <c r="C32">
-        <v>1481184</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33">
-        <v>72113</v>
-      </c>
-      <c r="C33">
-        <v>72113</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34">
-        <v>409294</v>
-      </c>
-      <c r="C34">
-        <v>409294</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -3715,153 +2651,153 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
         <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/allTest_MDPCPorgJune.xlsx
+++ b/allTest_MDPCPorgJune.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="60">
   <si>
     <t>tableName</t>
   </si>
@@ -102,37 +102,40 @@
     <t>PROD_MEDSTAR_MDPCP</t>
   </si>
   <si>
+    <t>m-2022-06</t>
+  </si>
+  <si>
+    <t>orgDBName_x</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_x</t>
+  </si>
+  <si>
+    <t>MaxLP_x</t>
+  </si>
+  <si>
+    <t>rwCount_x</t>
+  </si>
+  <si>
+    <t>orgDBName_y</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_y</t>
+  </si>
+  <si>
+    <t>MaxLP_y</t>
+  </si>
+  <si>
+    <t>rwCount_y</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>INT_MEDSTAR_MDPCP_FE</t>
+  </si>
+  <si>
     <t>m-2022-02</t>
-  </si>
-  <si>
-    <t>orgDBName_x</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_x</t>
-  </si>
-  <si>
-    <t>MaxLP_x</t>
-  </si>
-  <si>
-    <t>rwCount_x</t>
-  </si>
-  <si>
-    <t>orgDBName_y</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_y</t>
-  </si>
-  <si>
-    <t>MaxLP_y</t>
-  </si>
-  <si>
-    <t>rwCount_y</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>INT_MEDSTAR_MDPCP_FE</t>
   </si>
   <si>
     <t>rowsEffected</t>
@@ -588,13 +591,13 @@
         <v>26</v>
       </c>
       <c r="C2" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
       <c r="E2">
-        <v>21859</v>
+        <v>22771</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -605,13 +608,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3">
-        <v>34693</v>
+        <v>36176</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -622,13 +625,13 @@
         <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4">
-        <v>108135</v>
+        <v>113298</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -639,13 +642,13 @@
         <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>66781</v>
+        <v>68750</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -656,13 +659,13 @@
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>24696974</v>
+        <v>26217655</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -673,13 +676,13 @@
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>10818013</v>
+        <v>11497118</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -690,13 +693,13 @@
         <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8">
-        <v>122558</v>
+        <v>130115</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -718,13 +721,13 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>7378407</v>
+        <v>7777254</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -735,13 +738,13 @@
         <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>3577759</v>
+        <v>3841485</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -752,13 +755,13 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>22730157</v>
+        <v>23694410</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -769,13 +772,13 @@
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>3212324</v>
+        <v>3263436</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -786,13 +789,13 @@
         <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>19296231</v>
+        <v>21340886</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -803,13 +806,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>14756814</v>
+        <v>15554508</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -820,13 +823,13 @@
         <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>154128847</v>
+        <v>162591528</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -837,13 +840,13 @@
         <v>26</v>
       </c>
       <c r="C17" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>4571849</v>
+        <v>4840876</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -854,13 +857,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>2795204</v>
+        <v>3027833</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -871,13 +874,13 @@
         <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1445610</v>
+        <v>1649990</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -888,13 +891,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>154128847</v>
+        <v>162591528</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -905,13 +908,13 @@
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="E21">
-        <v>3425463</v>
+        <v>3645942</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -922,13 +925,13 @@
         <v>26</v>
       </c>
       <c r="C22" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="E22">
-        <v>1781</v>
+        <v>1907</v>
       </c>
     </row>
   </sheetData>
@@ -984,13 +987,13 @@
         <v>26</v>
       </c>
       <c r="C2" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
       <c r="E2">
-        <v>21859</v>
+        <v>22771</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -999,13 +1002,13 @@
         <v>44690</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>21859</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>912</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1016,13 +1019,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3">
-        <v>34693</v>
+        <v>36176</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1031,13 +1034,13 @@
         <v>44690</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>34693</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1048,13 +1051,13 @@
         <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4">
-        <v>108135</v>
+        <v>113298</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1063,13 +1066,13 @@
         <v>44690</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I4">
         <v>108135</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1080,13 +1083,13 @@
         <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>66781</v>
+        <v>68750</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -1095,13 +1098,13 @@
         <v>44690</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>66781</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1112,13 +1115,13 @@
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>24696974</v>
+        <v>26217655</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -1127,13 +1130,13 @@
         <v>44690</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I6">
         <v>24696974</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1520681</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1144,13 +1147,13 @@
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>10818013</v>
+        <v>11497118</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -1159,13 +1162,13 @@
         <v>44690</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <v>10818013</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>679105</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1176,13 +1179,13 @@
         <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8">
-        <v>122558</v>
+        <v>130115</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -1191,13 +1194,13 @@
         <v>44690</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I8">
         <v>122558</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1228,13 +1231,13 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>7378407</v>
+        <v>7777254</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1243,13 +1246,13 @@
         <v>44690</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I10">
         <v>7378407</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>398847</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1260,13 +1263,13 @@
         <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>3577759</v>
+        <v>3841485</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -1275,13 +1278,13 @@
         <v>44690</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I11">
         <v>3577759</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>263726</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1292,13 +1295,13 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>22730157</v>
+        <v>23694410</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -1307,13 +1310,13 @@
         <v>44690</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I12">
         <v>22730157</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>964253</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1324,13 +1327,13 @@
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>3212324</v>
+        <v>3263436</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -1339,13 +1342,13 @@
         <v>44690</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I13">
         <v>3212324</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>51112</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1356,13 +1359,13 @@
         <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>19296231</v>
+        <v>21340886</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -1371,13 +1374,13 @@
         <v>44690</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I14">
         <v>19296231</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2044655</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1388,13 +1391,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>14756814</v>
+        <v>15554508</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -1403,13 +1406,13 @@
         <v>44690</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I15">
         <v>14756814</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>797694</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1420,13 +1423,13 @@
         <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>154128847</v>
+        <v>162591528</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
@@ -1435,13 +1438,13 @@
         <v>44690</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I16">
         <v>154128847</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8462681</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1452,13 +1455,13 @@
         <v>26</v>
       </c>
       <c r="C17" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>4571849</v>
+        <v>4840876</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -1467,13 +1470,13 @@
         <v>44690</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I17">
         <v>4571849</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>269027</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1484,13 +1487,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>2795204</v>
+        <v>3027833</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -1499,13 +1502,13 @@
         <v>44690</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I18">
         <v>2795204</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>232629</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1516,13 +1519,13 @@
         <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1445610</v>
+        <v>1649990</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -1531,13 +1534,13 @@
         <v>44690</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I19">
         <v>1445610</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>204380</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1548,13 +1551,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>154128847</v>
+        <v>162591528</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -1563,13 +1566,13 @@
         <v>44690</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I20">
         <v>154128847</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8462681</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1580,13 +1583,13 @@
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="E21">
-        <v>3425463</v>
+        <v>3645942</v>
       </c>
       <c r="F21" t="s">
         <v>37</v>
@@ -1595,13 +1598,13 @@
         <v>44690</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I21">
         <v>3425463</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>220479</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1612,13 +1615,13 @@
         <v>26</v>
       </c>
       <c r="C22" s="2">
-        <v>44690</v>
+        <v>44739</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="E22">
-        <v>1781</v>
+        <v>1907</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -1627,13 +1630,13 @@
         <v>44690</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I22">
         <v>1781</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1657,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1904,7 +1907,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -1913,7 +1916,7 @@
         <v>44260</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -1930,7 +1933,7 @@
         <v>44736</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>585100</v>
@@ -1938,7 +1941,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -1947,7 +1950,7 @@
         <v>44736</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>31804</v>
@@ -1955,7 +1958,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1964,7 +1967,7 @@
         <v>44736</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>476134</v>
@@ -1972,7 +1975,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1981,7 +1984,7 @@
         <v>44736</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>18811404</v>
@@ -1989,7 +1992,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1998,7 +2001,7 @@
         <v>44736</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>1786637</v>
@@ -2006,7 +2009,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -2015,7 +2018,7 @@
         <v>44736</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>3643747</v>
@@ -2023,7 +2026,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -2032,7 +2035,7 @@
         <v>44736</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>20431194</v>
@@ -2040,7 +2043,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -2049,7 +2052,7 @@
         <v>44736</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>417804</v>
@@ -2057,7 +2060,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -2066,7 +2069,7 @@
         <v>44736</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>28259590</v>
@@ -2074,7 +2077,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -2083,7 +2086,7 @@
         <v>44736</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>3788413</v>
@@ -2091,7 +2094,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -2100,7 +2103,7 @@
         <v>44736</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>73116558</v>
@@ -2108,7 +2111,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -2117,7 +2120,7 @@
         <v>44736</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>24725632</v>
@@ -2125,7 +2128,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -2134,7 +2137,7 @@
         <v>44736</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>4880</v>
@@ -2187,7 +2190,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -2196,7 +2199,7 @@
         <v>44260</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2208,7 +2211,7 @@
         <v>44260</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2219,7 +2222,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -2228,7 +2231,7 @@
         <v>44736</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>585100</v>
@@ -2240,7 +2243,7 @@
         <v>44685</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3">
         <v>541491</v>
@@ -2251,7 +2254,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -2260,7 +2263,7 @@
         <v>44736</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>31804</v>
@@ -2272,7 +2275,7 @@
         <v>44685</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4">
         <v>28322</v>
@@ -2283,7 +2286,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -2292,7 +2295,7 @@
         <v>44736</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>476134</v>
@@ -2304,7 +2307,7 @@
         <v>44685</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5">
         <v>432525</v>
@@ -2315,7 +2318,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -2324,7 +2327,7 @@
         <v>44736</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>18811404</v>
@@ -2336,7 +2339,7 @@
         <v>44685</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6">
         <v>17241480</v>
@@ -2347,7 +2350,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -2356,7 +2359,7 @@
         <v>44736</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>1786637</v>
@@ -2368,7 +2371,7 @@
         <v>44685</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I7">
         <v>1609377</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -2388,7 +2391,7 @@
         <v>44736</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>3643747</v>
@@ -2400,7 +2403,7 @@
         <v>44685</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8">
         <v>3333564</v>
@@ -2411,7 +2414,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -2420,7 +2423,7 @@
         <v>44736</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>20431194</v>
@@ -2432,7 +2435,7 @@
         <v>44685</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9">
         <v>18627988</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -2452,7 +2455,7 @@
         <v>44736</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>417804</v>
@@ -2464,7 +2467,7 @@
         <v>44685</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10">
         <v>382535</v>
@@ -2475,7 +2478,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -2484,7 +2487,7 @@
         <v>44736</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>28259590</v>
@@ -2496,7 +2499,7 @@
         <v>44685</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I11">
         <v>25955246</v>
@@ -2507,7 +2510,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -2516,7 +2519,7 @@
         <v>44736</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>3788413</v>
@@ -2528,7 +2531,7 @@
         <v>44685</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I12">
         <v>3444448</v>
@@ -2539,7 +2542,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -2548,7 +2551,7 @@
         <v>44736</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>73116558</v>
@@ -2560,7 +2563,7 @@
         <v>44690</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I13">
         <v>66323111</v>
@@ -2571,7 +2574,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -2580,7 +2583,7 @@
         <v>44736</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>24725632</v>
@@ -2592,7 +2595,7 @@
         <v>44685</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I14">
         <v>22532362</v>
@@ -2603,7 +2606,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -2612,7 +2615,7 @@
         <v>44736</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>4880</v>
@@ -2624,7 +2627,7 @@
         <v>44685</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15">
         <v>4340</v>
@@ -2651,18 +2654,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>54</v>
@@ -2670,10 +2673,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>54</v>
@@ -2681,10 +2684,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>54</v>
@@ -2692,10 +2695,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>54</v>
@@ -2703,10 +2706,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>54</v>
@@ -2714,10 +2717,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>54</v>
@@ -2725,10 +2728,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>54</v>
@@ -2736,10 +2739,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>54</v>
@@ -2747,10 +2750,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>54</v>
@@ -2758,10 +2761,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>54</v>
@@ -2769,10 +2772,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>54</v>
@@ -2780,10 +2783,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>54</v>
@@ -2791,10 +2794,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>54</v>

--- a/allTest_MDPCPorgJune.xlsx
+++ b/allTest_MDPCPorgJune.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>tableName</t>
   </si>
@@ -26,7 +26,52 @@
     <t>practiceCount</t>
   </si>
   <si>
+    <t>mdpcp_assgn_attribd</t>
+  </si>
+  <si>
+    <t>mdpcp_assgn_termd</t>
+  </si>
+  <si>
+    <t>mdpcp_bened</t>
+  </si>
+  <si>
+    <t>mdpcp_bened_month</t>
+  </si>
+  <si>
+    <t>mdpcp_bened_year</t>
+  </si>
+  <si>
+    <t>mdpcp_ptaclm</t>
+  </si>
+  <si>
+    <t>mdpcp_ptadgn</t>
+  </si>
+  <si>
+    <t>mdpcp_ptaprc</t>
+  </si>
+  <si>
+    <t>mdpcp_ptarev</t>
+  </si>
+  <si>
+    <t>mdpcp_ptbdme</t>
+  </si>
+  <si>
+    <t>mdpcp_ptbphy</t>
+  </si>
+  <si>
+    <t>mdpcp_ptd</t>
+  </si>
+  <si>
+    <t>mdpcp_stat</t>
+  </si>
+  <si>
+    <t>q-2022-2</t>
+  </si>
+  <si>
     <t>SRC_RISK_SCORE</t>
+  </si>
+  <si>
+    <t>SRC_ADI_QUINTILE</t>
   </si>
 </sst>
 </file>
@@ -384,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,6 +446,149 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -408,55 +596,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>46775</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1.064229780865847</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>3.046693805699197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.955676550548061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>0.9556765505480609</v>
+      </c>
+      <c r="B4">
+        <v>1.349683951310459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>0.06900000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>0.499</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>0.753</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>1.246</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>11.86</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/allTest_MDPCPorgJune.xlsx
+++ b/allTest_MDPCPorgJune.xlsx
@@ -7,77 +7,241 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="MDPCP_ps_id prod_medstar_mdpcp" sheetId="1" r:id="rId1"/>
-    <sheet name="RstrDesc prod_medstar_mdpcp" sheetId="2" r:id="rId2"/>
+    <sheet name="odsCountMax prod_medstar_mdpcp" sheetId="1" r:id="rId1"/>
+    <sheet name="odsCountMaxC prod_medstar_mdpcp" sheetId="2" r:id="rId2"/>
+    <sheet name="MDPCP_ps_id prod_medstar_mdpcp" sheetId="3" r:id="rId3"/>
+    <sheet name="RstrDesc prod_medstar_mdpcp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="72">
   <si>
     <t>tableName</t>
   </si>
   <si>
+    <t>orgDBName</t>
+  </si>
+  <si>
+    <t>MaxLoadTS</t>
+  </si>
+  <si>
+    <t>MaxLP</t>
+  </si>
+  <si>
+    <t>rwCount</t>
+  </si>
+  <si>
+    <t>cclf_0_summ_stat</t>
+  </si>
+  <si>
+    <t>cclf_1_pt_a_clm_hdr</t>
+  </si>
+  <si>
+    <t>cclf_2_pt_a_clm_rev_ctr_det</t>
+  </si>
+  <si>
+    <t>cclf_3_pt_a_proc_cd</t>
+  </si>
+  <si>
+    <t>cclf_4_pt_a_diag_cd</t>
+  </si>
+  <si>
+    <t>cclf_5_pt_b_phys</t>
+  </si>
+  <si>
+    <t>cclf_6_pt_b_dme</t>
+  </si>
+  <si>
+    <t>cclf_7_pt_d</t>
+  </si>
+  <si>
+    <t>cclf_8_bene_demo</t>
+  </si>
+  <si>
+    <t>cclf_assgn_0_header</t>
+  </si>
+  <si>
+    <t>cclf_assgn_1_hcc</t>
+  </si>
+  <si>
+    <t>cclf_assgn_1_summ</t>
+  </si>
+  <si>
+    <t>cclf_assgn_2_tin</t>
+  </si>
+  <si>
+    <t>cclf_assgn_3_ccn</t>
+  </si>
+  <si>
+    <t>cclf_assgn_4_tin_npi</t>
+  </si>
+  <si>
+    <t>cclf_assgn_5_turnover</t>
+  </si>
+  <si>
+    <t>cclf_assgn_6_assgnbl</t>
+  </si>
+  <si>
+    <t>cclf_a_pt_a_be_demo</t>
+  </si>
+  <si>
+    <t>cclf_benchmark_1_detail</t>
+  </si>
+  <si>
+    <t>cclf_b_pt_b_be_demo</t>
+  </si>
+  <si>
+    <t>cclf_expu_0_header</t>
+  </si>
+  <si>
+    <t>cclf_expu_1_detail</t>
+  </si>
+  <si>
+    <t>cclf_expu_2_regional</t>
+  </si>
+  <si>
+    <t>cclf_expu_2_snf</t>
+  </si>
+  <si>
+    <t>cclf_expu_3_snf</t>
+  </si>
+  <si>
+    <t>cclf_ng_align</t>
+  </si>
+  <si>
+    <t>nh_network_model_0_hdr</t>
+  </si>
+  <si>
+    <t>mdpcp_assgn_attribd</t>
+  </si>
+  <si>
+    <t>mdpcp_assgn_termd</t>
+  </si>
+  <si>
+    <t>mdpcp_bened</t>
+  </si>
+  <si>
+    <t>mdpcp_bened_month</t>
+  </si>
+  <si>
+    <t>mdpcp_bened_year</t>
+  </si>
+  <si>
+    <t>mdpcp_ptaclm</t>
+  </si>
+  <si>
+    <t>mdpcp_ptadgn</t>
+  </si>
+  <si>
+    <t>mdpcp_ptaprc</t>
+  </si>
+  <si>
+    <t>mdpcp_ptarev</t>
+  </si>
+  <si>
+    <t>mdpcp_ptbdme</t>
+  </si>
+  <si>
+    <t>mdpcp_ptbphy</t>
+  </si>
+  <si>
+    <t>mdpcp_ptd</t>
+  </si>
+  <si>
+    <t>mdpcp_stat</t>
+  </si>
+  <si>
+    <t>PROD_MEDSTAR_MDPCP</t>
+  </si>
+  <si>
+    <t>2021-03</t>
+  </si>
+  <si>
+    <t>q-2022-2</t>
+  </si>
+  <si>
+    <t>orgDBName_x</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_x</t>
+  </si>
+  <si>
+    <t>MaxLP_x</t>
+  </si>
+  <si>
+    <t>rwCount_x</t>
+  </si>
+  <si>
+    <t>orgDBName_y</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_y</t>
+  </si>
+  <si>
+    <t>MaxLP_y</t>
+  </si>
+  <si>
+    <t>rwCount_y</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>INT_MEDSTAR_MDPCP_FE</t>
+  </si>
+  <si>
+    <t>q-2022-1</t>
+  </si>
+  <si>
     <t>loadPeriod</t>
   </si>
   <si>
     <t>practiceCount</t>
   </si>
   <si>
-    <t>mdpcp_assgn_attribd</t>
-  </si>
-  <si>
-    <t>mdpcp_assgn_termd</t>
-  </si>
-  <si>
-    <t>mdpcp_bened</t>
-  </si>
-  <si>
-    <t>mdpcp_bened_month</t>
-  </si>
-  <si>
-    <t>mdpcp_bened_year</t>
-  </si>
-  <si>
-    <t>mdpcp_ptaclm</t>
-  </si>
-  <si>
-    <t>mdpcp_ptadgn</t>
-  </si>
-  <si>
-    <t>mdpcp_ptaprc</t>
-  </si>
-  <si>
-    <t>mdpcp_ptarev</t>
-  </si>
-  <si>
-    <t>mdpcp_ptbdme</t>
-  </si>
-  <si>
-    <t>mdpcp_ptbphy</t>
-  </si>
-  <si>
-    <t>mdpcp_ptd</t>
-  </si>
-  <si>
-    <t>mdpcp_stat</t>
-  </si>
-  <si>
-    <t>q-2022-2</t>
-  </si>
-  <si>
     <t>SRC_RISK_SCORE</t>
   </si>
   <si>
     <t>SRC_ADI_QUINTILE</t>
+  </si>
+  <si>
+    <t>IndexCol</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -130,11 +294,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,13 +594,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,148 +610,535 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44260</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29">
+        <v>585100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30">
+        <v>31804</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31">
+        <v>476134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32">
+        <v>18811404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33">
+        <v>1786637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34">
+        <v>3643747</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35">
+        <v>20431194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36">
+        <v>417804</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37">
+        <v>28259590</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38">
+        <v>3788413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39">
+        <v>73116558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40">
+        <v>24725632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41">
+        <v>4880</v>
       </c>
     </row>
   </sheetData>
@@ -596,82 +1148,1289 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44260</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="2">
+        <v>44260</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29">
+        <v>585100</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="2">
+        <v>44685</v>
+      </c>
+      <c r="H29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29">
+        <v>541491</v>
+      </c>
+      <c r="J29">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30">
+        <v>31804</v>
+      </c>
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="2">
+        <v>44685</v>
+      </c>
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30">
+        <v>28322</v>
+      </c>
+      <c r="J30">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31">
+        <v>476134</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="2">
+        <v>44685</v>
+      </c>
+      <c r="H31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31">
+        <v>432525</v>
+      </c>
+      <c r="J31">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32">
+        <v>18811404</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="2">
+        <v>44685</v>
+      </c>
+      <c r="H32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32">
+        <v>17241480</v>
+      </c>
+      <c r="J32">
+        <v>1569924</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33">
+        <v>1786637</v>
+      </c>
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="2">
+        <v>44685</v>
+      </c>
+      <c r="H33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33">
+        <v>1609377</v>
+      </c>
+      <c r="J33">
+        <v>177260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34">
+        <v>3643747</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="2">
+        <v>44685</v>
+      </c>
+      <c r="H34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34">
+        <v>3333564</v>
+      </c>
+      <c r="J34">
+        <v>310183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35">
+        <v>20431194</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="2">
+        <v>44685</v>
+      </c>
+      <c r="H35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35">
+        <v>18627988</v>
+      </c>
+      <c r="J35">
+        <v>1803206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36">
+        <v>417804</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="2">
+        <v>44685</v>
+      </c>
+      <c r="H36" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36">
+        <v>382535</v>
+      </c>
+      <c r="J36">
+        <v>35269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37">
+        <v>28259590</v>
+      </c>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="2">
+        <v>44685</v>
+      </c>
+      <c r="H37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37">
+        <v>25955246</v>
+      </c>
+      <c r="J37">
+        <v>2304344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38">
+        <v>3788413</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44685</v>
+      </c>
+      <c r="H38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38">
+        <v>3444448</v>
+      </c>
+      <c r="J38">
+        <v>343965</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39">
+        <v>73116558</v>
+      </c>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H39" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39">
+        <v>66323111</v>
+      </c>
+      <c r="J39">
+        <v>6793447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40">
+        <v>24725632</v>
+      </c>
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="2">
+        <v>44685</v>
+      </c>
+      <c r="H40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40">
+        <v>22532362</v>
+      </c>
+      <c r="J40">
+        <v>2193270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41">
+        <v>4880</v>
+      </c>
+      <c r="F41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="2">
+        <v>44685</v>
+      </c>
+      <c r="H41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41">
+        <v>4340</v>
+      </c>
+      <c r="J41">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>46775</v>
       </c>
       <c r="B2">
         <v>45445</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1.064229780865847</v>
       </c>
       <c r="B3">
         <v>3.046693805699197</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0.9556765505480609</v>
       </c>
       <c r="B4">
         <v>1.349683951310459</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0.06900000000000001</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0.499</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0.753</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1.246</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>11.86</v>
       </c>
       <c r="B9">
         <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/allTest_MDPCPorgJune.xlsx
+++ b/allTest_MDPCPorgJune.xlsx
@@ -7,17 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="odsCountMax prod_medstar_mdpcp" sheetId="1" r:id="rId1"/>
-    <sheet name="odsCountMaxC prod_medstar_mdpcp" sheetId="2" r:id="rId2"/>
-    <sheet name="MDPCP_ps_id prod_medstar_mdpcp" sheetId="3" r:id="rId3"/>
-    <sheet name="RstrDesc prod_medstar_mdpcp" sheetId="4" r:id="rId4"/>
+    <sheet name="insCountMax prod_medstar_mdpcp" sheetId="1" r:id="rId1"/>
+    <sheet name="insCountMaxC prod_medstar_mdpcp" sheetId="2" r:id="rId2"/>
+    <sheet name="dupInsCheck prod_medstar_mdpcp" sheetId="3" r:id="rId3"/>
+    <sheet name="odsCountMax prod_medstar_mdpcp" sheetId="4" r:id="rId4"/>
+    <sheet name="odsCountMaxC prod_medstar_mdpcp" sheetId="5" r:id="rId5"/>
+    <sheet name="ccsCompare prod_medstar_mdpcp" sheetId="6" r:id="rId6"/>
+    <sheet name="dupODSchk prod_medstar_mdpcp" sheetId="7" r:id="rId7"/>
+    <sheet name="MDPCP_ps_id prod_medstar_mdpcp" sheetId="8" r:id="rId8"/>
+    <sheet name="RstrDesc prod_medstar_mdpcp" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="133">
   <si>
     <t>tableName</t>
   </si>
@@ -34,6 +39,114 @@
     <t>rwCount</t>
   </si>
   <si>
+    <t>tin</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>inpatient_stay</t>
+  </si>
+  <si>
+    <t>aco_x_patient_month</t>
+  </si>
+  <si>
+    <t>patient_x_month</t>
+  </si>
+  <si>
+    <t>patient_x_medicare_month</t>
+  </si>
+  <si>
+    <t>patient_x_chronic_condition_month</t>
+  </si>
+  <si>
+    <t>patient_x_risk_score_month</t>
+  </si>
+  <si>
+    <t>metric_value_operational_dashboard</t>
+  </si>
+  <si>
+    <t>profile_list_patient</t>
+  </si>
+  <si>
+    <t>metric_value_patient_x_claim</t>
+  </si>
+  <si>
+    <t>metric_value_qexpu</t>
+  </si>
+  <si>
+    <t>hcc_x_patient_year</t>
+  </si>
+  <si>
+    <t>hcc_x_patient_undercoded_layup</t>
+  </si>
+  <si>
+    <t>metric_value_patient_x_claim_layup</t>
+  </si>
+  <si>
+    <t>patient_roster</t>
+  </si>
+  <si>
+    <t>episode_x_visit</t>
+  </si>
+  <si>
+    <t>PROD_MEDSTAR_MDPCP</t>
+  </si>
+  <si>
+    <t>m-2022-06</t>
+  </si>
+  <si>
+    <t>orgDBName_x</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_x</t>
+  </si>
+  <si>
+    <t>MaxLP_x</t>
+  </si>
+  <si>
+    <t>rwCount_x</t>
+  </si>
+  <si>
+    <t>orgDBName_y</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_y</t>
+  </si>
+  <si>
+    <t>MaxLP_y</t>
+  </si>
+  <si>
+    <t>rwCount_y</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>INT_MEDSTAR_MDPCP_FE</t>
+  </si>
+  <si>
+    <t>m-2022-02</t>
+  </si>
+  <si>
+    <t>rowsEffected</t>
+  </si>
+  <si>
+    <t>pkRowCount</t>
+  </si>
+  <si>
     <t>cclf_0_summ_stat</t>
   </si>
   <si>
@@ -154,48 +267,123 @@
     <t>mdpcp_stat</t>
   </si>
   <si>
-    <t>PROD_MEDSTAR_MDPCP</t>
-  </si>
-  <si>
     <t>2021-03</t>
   </si>
   <si>
     <t>q-2022-2</t>
   </si>
   <si>
-    <t>orgDBName_x</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_x</t>
-  </si>
-  <si>
-    <t>MaxLP_x</t>
-  </si>
-  <si>
-    <t>rwCount_x</t>
-  </si>
-  <si>
-    <t>orgDBName_y</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_y</t>
-  </si>
-  <si>
-    <t>MaxLP_y</t>
-  </si>
-  <si>
-    <t>rwCount_y</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>INT_MEDSTAR_MDPCP_FE</t>
-  </si>
-  <si>
     <t>q-2022-1</t>
   </si>
   <si>
+    <t>MEASURE_ID</t>
+  </si>
+  <si>
+    <t>RWCNT_x</t>
+  </si>
+  <si>
+    <t>RWCNT_y</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_acquired_hypothyroidism</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_acute_myocardial_infarction</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_alzheimers_disease</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_alzheimers_disease_and_related_disorders_or_senile_dementia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_anemia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_anxiety_disorders</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_asthma</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_atrial_fibrillation</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_benign_prostatic_hyperplasia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_bipolar_disorder</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_cataract</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_chronic_kidney_disease</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_chronic_obstructive_pulmonary_disease_and_bronchiectasis</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_colorectal_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_depression</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_diabetes</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_endometrial_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_female_male_breast_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_glaucoma</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_heart_failure</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_hip_pelvic_fracture</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_hyperlipidemia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_hypertension</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_ischemic_heart_disease</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_lung_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_obesity</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_osteoporosis</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_personality_disorders</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_post_traumatic_stress_disorder</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_prostate_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_rheumatoid_arthritis_osteoarthritis</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_schizophrenia_and_other_psychotic_disorders</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_stroke_transient_ischemic_attack</t>
+  </si>
+  <si>
     <t>loadPeriod</t>
   </si>
   <si>
@@ -208,7 +396,7 @@
     <t>SRC_ADI_QUINTILE</t>
   </si>
   <si>
-    <t>IndexCol</t>
+    <t>Statistic</t>
   </si>
   <si>
     <t>count</t>
@@ -594,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +810,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>22771</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -633,10 +827,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>36176</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -644,10 +844,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>113298</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -655,10 +861,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>68750</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -666,10 +878,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>26217655</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -677,10 +895,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>11497118</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -688,10 +912,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>130115</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -699,7 +929,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -710,10 +940,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>7777254</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -721,10 +957,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3841485</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -732,10 +974,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>23694410</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -743,10 +991,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3263436</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -754,10 +1008,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>21340886</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -765,10 +1025,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>15554508</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -776,10 +1042,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>162591528</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -787,10 +1059,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>4840876</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -798,10 +1076,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>3027833</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -809,10 +1093,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1649990</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -820,10 +1110,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>162591528</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -831,10 +1127,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3645942</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -842,303 +1144,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="2">
-        <v>44260</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="2">
-        <v>44736</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29">
-        <v>585100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="2">
-        <v>44736</v>
-      </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30">
-        <v>31804</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="2">
-        <v>44736</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31">
-        <v>476134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="2">
-        <v>44736</v>
-      </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32">
-        <v>18811404</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="2">
-        <v>44736</v>
-      </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33">
-        <v>1786637</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="2">
-        <v>44736</v>
-      </c>
-      <c r="D34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34">
-        <v>3643747</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="2">
-        <v>44736</v>
-      </c>
-      <c r="D35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35">
-        <v>20431194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="2">
-        <v>44736</v>
-      </c>
-      <c r="D36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36">
-        <v>417804</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="2">
-        <v>44736</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37">
-        <v>28259590</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="2">
-        <v>44736</v>
-      </c>
-      <c r="D38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38">
-        <v>3788413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2">
-        <v>44736</v>
-      </c>
-      <c r="D39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39">
-        <v>73116558</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="2">
-        <v>44736</v>
-      </c>
-      <c r="D40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40">
-        <v>24725632</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="2">
-        <v>44736</v>
-      </c>
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41">
-        <v>4880</v>
+        <v>1907</v>
       </c>
     </row>
   </sheetData>
@@ -1147,6 +1162,1501 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>22771</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2">
+        <v>21859</v>
+      </c>
+      <c r="J2">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>36176</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>34693</v>
+      </c>
+      <c r="J3">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>113298</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>108135</v>
+      </c>
+      <c r="J4">
+        <v>5163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>68750</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>66781</v>
+      </c>
+      <c r="J5">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>26217655</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6">
+        <v>24696974</v>
+      </c>
+      <c r="J6">
+        <v>1520681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>11497118</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>10818013</v>
+      </c>
+      <c r="J7">
+        <v>679105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>130115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>122558</v>
+      </c>
+      <c r="J8">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>7777254</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>7378407</v>
+      </c>
+      <c r="J10">
+        <v>398847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>3841485</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>3577759</v>
+      </c>
+      <c r="J11">
+        <v>263726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>23694410</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>22730157</v>
+      </c>
+      <c r="J12">
+        <v>964253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3263436</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>3212324</v>
+      </c>
+      <c r="J13">
+        <v>51112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>21340886</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14">
+        <v>19296231</v>
+      </c>
+      <c r="J14">
+        <v>2044655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>15554508</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15">
+        <v>14756814</v>
+      </c>
+      <c r="J15">
+        <v>797694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>162591528</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16">
+        <v>154128847</v>
+      </c>
+      <c r="J16">
+        <v>8462681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>4840876</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17">
+        <v>4571849</v>
+      </c>
+      <c r="J17">
+        <v>269027</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3027833</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18">
+        <v>2795204</v>
+      </c>
+      <c r="J18">
+        <v>232629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1649990</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19">
+        <v>1445610</v>
+      </c>
+      <c r="J19">
+        <v>204380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>162591528</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20">
+        <v>154128847</v>
+      </c>
+      <c r="J20">
+        <v>8462681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3645942</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21">
+        <v>3425463</v>
+      </c>
+      <c r="J21">
+        <v>220479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44739</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>1907</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="2">
+        <v>44690</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22">
+        <v>1781</v>
+      </c>
+      <c r="J22">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44260</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29">
+        <v>585100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30">
+        <v>31804</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31">
+        <v>476134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32">
+        <v>18811404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33">
+        <v>1786637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34">
+        <v>3643747</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35">
+        <v>20431194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36">
+        <v>417804</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37">
+        <v>28259590</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38">
+        <v>3788413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39">
+        <v>73116558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40">
+        <v>24725632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44736</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41">
+        <v>4880</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J41"/>
   <sheetViews>
@@ -1159,45 +2669,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1208,16 +2718,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1228,16 +2738,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1248,16 +2758,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1268,16 +2778,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1288,16 +2798,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1308,16 +2818,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1328,16 +2838,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1348,16 +2858,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1368,16 +2878,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1388,16 +2898,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1408,16 +2918,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1428,16 +2938,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1448,16 +2958,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1468,16 +2978,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1488,16 +2998,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1508,16 +3018,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1528,16 +3038,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1548,16 +3058,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1568,16 +3078,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1588,16 +3098,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1608,16 +3118,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1628,16 +3138,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1648,16 +3158,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1668,16 +3178,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1688,16 +3198,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1708,28 +3218,28 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2">
         <v>44260</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G28" s="2">
         <v>44260</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1740,28 +3250,28 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2">
         <v>44736</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E29">
         <v>585100</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G29" s="2">
         <v>44685</v>
       </c>
       <c r="H29" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>541491</v>
@@ -1772,28 +3282,28 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2">
         <v>44736</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E30">
         <v>31804</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G30" s="2">
         <v>44685</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>28322</v>
@@ -1804,28 +3314,28 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2">
         <v>44736</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E31">
         <v>476134</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G31" s="2">
         <v>44685</v>
       </c>
       <c r="H31" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>432525</v>
@@ -1836,28 +3346,28 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2">
         <v>44736</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E32">
         <v>18811404</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G32" s="2">
         <v>44685</v>
       </c>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>17241480</v>
@@ -1868,28 +3378,28 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2">
         <v>44736</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E33">
         <v>1786637</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G33" s="2">
         <v>44685</v>
       </c>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>1609377</v>
@@ -1900,28 +3410,28 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2">
         <v>44736</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E34">
         <v>3643747</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G34" s="2">
         <v>44685</v>
       </c>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>3333564</v>
@@ -1932,28 +3442,28 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2">
         <v>44736</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E35">
         <v>20431194</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G35" s="2">
         <v>44685</v>
       </c>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>18627988</v>
@@ -1964,28 +3474,28 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2">
         <v>44736</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E36">
         <v>417804</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G36" s="2">
         <v>44685</v>
       </c>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>382535</v>
@@ -1996,28 +3506,28 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C37" s="2">
         <v>44736</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E37">
         <v>28259590</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G37" s="2">
         <v>44685</v>
       </c>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>25955246</v>
@@ -2028,28 +3538,28 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2">
         <v>44736</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E38">
         <v>3788413</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G38" s="2">
         <v>44685</v>
       </c>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>3444448</v>
@@ -2060,28 +3570,28 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2">
         <v>44736</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E39">
         <v>73116558</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G39" s="2">
         <v>44690</v>
       </c>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>66323111</v>
@@ -2092,28 +3602,28 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C40" s="2">
         <v>44736</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E40">
         <v>24725632</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G40" s="2">
         <v>44685</v>
       </c>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>22532362</v>
@@ -2124,28 +3634,28 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C41" s="2">
         <v>44736</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E41">
         <v>4880</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G41" s="2">
         <v>44685</v>
       </c>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>4340</v>
@@ -2159,7 +3669,820 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2">
+        <v>636363</v>
+      </c>
+      <c r="C2">
+        <v>612276</v>
+      </c>
+      <c r="D2">
+        <v>24087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>64491</v>
+      </c>
+      <c r="C3">
+        <v>61309</v>
+      </c>
+      <c r="D3">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>77848</v>
+      </c>
+      <c r="C4">
+        <v>74185</v>
+      </c>
+      <c r="D4">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>295815</v>
+      </c>
+      <c r="C5">
+        <v>279128</v>
+      </c>
+      <c r="D5">
+        <v>16687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6">
+        <v>967587</v>
+      </c>
+      <c r="C6">
+        <v>923187</v>
+      </c>
+      <c r="D6">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7">
+        <v>706811</v>
+      </c>
+      <c r="C7">
+        <v>675287</v>
+      </c>
+      <c r="D7">
+        <v>31524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8">
+        <v>334554</v>
+      </c>
+      <c r="C8">
+        <v>322233</v>
+      </c>
+      <c r="D8">
+        <v>12321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9">
+        <v>402116</v>
+      </c>
+      <c r="C9">
+        <v>383024</v>
+      </c>
+      <c r="D9">
+        <v>19092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10">
+        <v>487993</v>
+      </c>
+      <c r="C10">
+        <v>469012</v>
+      </c>
+      <c r="D10">
+        <v>18981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11">
+        <v>120620</v>
+      </c>
+      <c r="C11">
+        <v>114737</v>
+      </c>
+      <c r="D11">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12">
+        <v>1360564</v>
+      </c>
+      <c r="C12">
+        <v>1305138</v>
+      </c>
+      <c r="D12">
+        <v>55426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13">
+        <v>986901</v>
+      </c>
+      <c r="C13">
+        <v>942908</v>
+      </c>
+      <c r="D13">
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14">
+        <v>653457</v>
+      </c>
+      <c r="C14">
+        <v>630480</v>
+      </c>
+      <c r="D14">
+        <v>22977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>63455</v>
+      </c>
+      <c r="C15">
+        <v>60902</v>
+      </c>
+      <c r="D15">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16">
+        <v>633292</v>
+      </c>
+      <c r="C16">
+        <v>611573</v>
+      </c>
+      <c r="D16">
+        <v>21719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17">
+        <v>1018906</v>
+      </c>
+      <c r="C17">
+        <v>982424</v>
+      </c>
+      <c r="D17">
+        <v>36482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18">
+        <v>24494</v>
+      </c>
+      <c r="C18">
+        <v>23347</v>
+      </c>
+      <c r="D18">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19">
+        <v>164058</v>
+      </c>
+      <c r="C19">
+        <v>157657</v>
+      </c>
+      <c r="D19">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20">
+        <v>608021</v>
+      </c>
+      <c r="C20">
+        <v>585044</v>
+      </c>
+      <c r="D20">
+        <v>22977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <v>413068</v>
+      </c>
+      <c r="C21">
+        <v>391608</v>
+      </c>
+      <c r="D21">
+        <v>21460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22">
+        <v>39590</v>
+      </c>
+      <c r="C22">
+        <v>37481</v>
+      </c>
+      <c r="D22">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23">
+        <v>2019941</v>
+      </c>
+      <c r="C23">
+        <v>1948272</v>
+      </c>
+      <c r="D23">
+        <v>71669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24">
+        <v>2078549</v>
+      </c>
+      <c r="C24">
+        <v>2010432</v>
+      </c>
+      <c r="D24">
+        <v>68117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25">
+        <v>816442</v>
+      </c>
+      <c r="C25">
+        <v>780256</v>
+      </c>
+      <c r="D25">
+        <v>36186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26">
+        <v>56055</v>
+      </c>
+      <c r="C26">
+        <v>52540</v>
+      </c>
+      <c r="D26">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>901838</v>
+      </c>
+      <c r="C27">
+        <v>865985</v>
+      </c>
+      <c r="D27">
+        <v>35853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>454915</v>
+      </c>
+      <c r="C28">
+        <v>433973</v>
+      </c>
+      <c r="D28">
+        <v>20942</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29">
+        <v>80734</v>
+      </c>
+      <c r="C29">
+        <v>78292</v>
+      </c>
+      <c r="D29">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30">
+        <v>39072</v>
+      </c>
+      <c r="C30">
+        <v>36852</v>
+      </c>
+      <c r="D30">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31">
+        <v>150368</v>
+      </c>
+      <c r="C31">
+        <v>145225</v>
+      </c>
+      <c r="D31">
+        <v>5143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32">
+        <v>1539311</v>
+      </c>
+      <c r="C32">
+        <v>1481184</v>
+      </c>
+      <c r="D32">
+        <v>58127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33">
+        <v>75665</v>
+      </c>
+      <c r="C33">
+        <v>72113</v>
+      </c>
+      <c r="D33">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34">
+        <v>428238</v>
+      </c>
+      <c r="C34">
+        <v>409294</v>
+      </c>
+      <c r="D34">
+        <v>18944</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -2172,18 +4495,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>54</v>
@@ -2191,10 +4514,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>54</v>
@@ -2202,10 +4525,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>54</v>
@@ -2213,10 +4536,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>54</v>
@@ -2224,10 +4547,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>54</v>
@@ -2235,10 +4558,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>54</v>
@@ -2246,10 +4569,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>54</v>
@@ -2257,10 +4580,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C9">
         <v>54</v>
@@ -2268,10 +4591,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>54</v>
@@ -2279,10 +4602,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C11">
         <v>54</v>
@@ -2290,10 +4613,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <v>54</v>
@@ -2301,10 +4624,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>54</v>
@@ -2312,10 +4635,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>54</v>
@@ -2326,7 +4649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -2336,13 +4659,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2353,7 +4676,7 @@
         <v>45445</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2364,18 +4687,18 @@
         <v>3.046693805699197</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.9556765505480609</v>
+        <v>0.9556765505480608</v>
       </c>
       <c r="B4">
         <v>1.349683951310459</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2386,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2397,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2408,7 +4731,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2419,7 +4742,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2430,7 +4753,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
